--- a/Kenya Model/Models/single Node/Graph_inputs.xlsx
+++ b/Kenya Model/Models/single Node/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Kenya Model\single Node\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Kenya Model\Models\single Node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B01E4B-4F28-4F93-B7F1-99FC15EEB55D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E0ECC-5B71-4B25-AF1A-09701BACA797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="20460" windowHeight="10890" activeTab="5" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand Technology" sheetId="1" r:id="rId1"/>
@@ -122,12 +122,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>'2015-06-01 00:00:00'</t>
-  </si>
-  <si>
-    <t>'2015-06-02 23:00:00'</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -228,6 +222,12 @@
   </si>
   <si>
     <t>KEN</t>
+  </si>
+  <si>
+    <t>2015-12-31 23:00:00'</t>
+  </si>
+  <si>
+    <t>2015-01-01 00:00:00'</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +283,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C088BFEB-5357-40AB-A001-86E2ED77B251}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -654,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -799,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -810,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -821,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -832,7 +833,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -843,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -854,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -865,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -873,90 +874,90 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1004,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,23 +1016,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="B2" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
